--- a/src/main/java/basic/ashok.xlsx
+++ b/src/main/java/basic/ashok.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1155" windowWidth="15300" windowHeight="7785"/>
+    <workbookView xWindow="0" yWindow="330" windowWidth="14520" windowHeight="3330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:M9"/>
 </workbook>
 </file>
 
@@ -424,7 +424,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
